--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H2">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I2">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J2">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N2">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O2">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P2">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q2">
-        <v>46.76619591617168</v>
+        <v>70.27407191888601</v>
       </c>
       <c r="R2">
-        <v>46.76619591617168</v>
+        <v>632.466647269974</v>
       </c>
       <c r="S2">
-        <v>0.004759332277645261</v>
+        <v>0.006237379388841184</v>
       </c>
       <c r="T2">
-        <v>0.004759332277645261</v>
+        <v>0.006237379388841184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H3">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I3">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J3">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N3">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O3">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P3">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q3">
-        <v>65.21654936771316</v>
+        <v>97.95727318937399</v>
       </c>
       <c r="R3">
-        <v>65.21654936771316</v>
+        <v>881.6154587043659</v>
       </c>
       <c r="S3">
-        <v>0.006636999703776878</v>
+        <v>0.008694482333167351</v>
       </c>
       <c r="T3">
-        <v>0.006636999703776878</v>
+        <v>0.008694482333167353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H4">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I4">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J4">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N4">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O4">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P4">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q4">
-        <v>16.79775122955749</v>
+        <v>25.148354098536</v>
       </c>
       <c r="R4">
-        <v>16.79775122955749</v>
+        <v>226.335186886824</v>
       </c>
       <c r="S4">
-        <v>0.001709484341253489</v>
+        <v>0.002232115220227226</v>
       </c>
       <c r="T4">
-        <v>0.001709484341253489</v>
+        <v>0.002232115220227226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H5">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I5">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J5">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N5">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O5">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P5">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q5">
-        <v>15.38194860529944</v>
+        <v>23.935005331406</v>
       </c>
       <c r="R5">
-        <v>15.38194860529944</v>
+        <v>215.415047982654</v>
       </c>
       <c r="S5">
-        <v>0.00156540003000259</v>
+        <v>0.0021244209258037</v>
       </c>
       <c r="T5">
-        <v>0.00156540003000259</v>
+        <v>0.0021244209258037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H6">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I6">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J6">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N6">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O6">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P6">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q6">
-        <v>133.2567790317655</v>
+        <v>242.487134466288</v>
       </c>
       <c r="R6">
-        <v>133.2567790317655</v>
+        <v>2182.384210196592</v>
       </c>
       <c r="S6">
-        <v>0.0135613615184299</v>
+        <v>0.02152265000845509</v>
       </c>
       <c r="T6">
-        <v>0.0135613615184299</v>
+        <v>0.02152265000845509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H7">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J7">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N7">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O7">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P7">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q7">
-        <v>1229.792492592432</v>
+        <v>1235.676448792495</v>
       </c>
       <c r="R7">
-        <v>1229.792492592432</v>
+        <v>11121.08803913246</v>
       </c>
       <c r="S7">
-        <v>0.1251543126426716</v>
+        <v>0.10967605266806</v>
       </c>
       <c r="T7">
-        <v>0.1251543126426716</v>
+        <v>0.10967605266806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H8">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J8">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N8">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O8">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P8">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q8">
-        <v>1714.974272206377</v>
+        <v>1722.448865746056</v>
       </c>
       <c r="R8">
-        <v>1714.974272206377</v>
+        <v>15502.0397917145</v>
       </c>
       <c r="S8">
-        <v>0.1745306037650273</v>
+        <v>0.152880952535924</v>
       </c>
       <c r="T8">
-        <v>0.1745306037650273</v>
+        <v>0.152880952535924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H9">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J9">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N9">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O9">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P9">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q9">
-        <v>441.723940762128</v>
+        <v>442.200487845984</v>
       </c>
       <c r="R9">
-        <v>441.723940762128</v>
+        <v>3979.804390613856</v>
       </c>
       <c r="S9">
-        <v>0.04495364585236413</v>
+        <v>0.03924878882512575</v>
       </c>
       <c r="T9">
-        <v>0.04495364585236413</v>
+        <v>0.03924878882512575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H10">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J10">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N10">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O10">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P10">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q10">
-        <v>404.4931289717867</v>
+        <v>420.8653573380417</v>
       </c>
       <c r="R10">
-        <v>404.4931289717867</v>
+        <v>3787.788216042376</v>
       </c>
       <c r="S10">
-        <v>0.04116471667381117</v>
+        <v>0.03735512734152653</v>
       </c>
       <c r="T10">
-        <v>0.04116471667381117</v>
+        <v>0.03735512734152654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H11">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J11">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N11">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O11">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P11">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q11">
-        <v>3504.201768603655</v>
+        <v>4263.814989133206</v>
       </c>
       <c r="R11">
-        <v>3504.201768603655</v>
+        <v>38374.33490219885</v>
       </c>
       <c r="S11">
-        <v>0.3566178573641454</v>
+        <v>0.3784472851060761</v>
       </c>
       <c r="T11">
-        <v>0.3566178573641454</v>
+        <v>0.3784472851060761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H12">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I12">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J12">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N12">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O12">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P12">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q12">
-        <v>379.9034358385323</v>
+        <v>0.2965418979441112</v>
       </c>
       <c r="R12">
-        <v>379.9034358385323</v>
+        <v>2.668877081497</v>
       </c>
       <c r="S12">
-        <v>0.0386622569818519</v>
+        <v>2.632043756194177E-05</v>
       </c>
       <c r="T12">
-        <v>0.0386622569818519</v>
+        <v>2.632043756194177E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H13">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I13">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J13">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N13">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O13">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P13">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q13">
-        <v>529.7841890483975</v>
+        <v>0.4133592221969999</v>
       </c>
       <c r="R13">
-        <v>529.7841890483975</v>
+        <v>3.720232999773</v>
       </c>
       <c r="S13">
-        <v>0.05391541778689453</v>
+        <v>3.668889851288215E-05</v>
       </c>
       <c r="T13">
-        <v>0.05391541778689453</v>
+        <v>3.668889851288215E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H14">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I14">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J14">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N14">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O14">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P14">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q14">
-        <v>136.4559011365536</v>
+        <v>0.106120798908</v>
       </c>
       <c r="R14">
-        <v>136.4559011365536</v>
+        <v>0.9550871901720001</v>
       </c>
       <c r="S14">
-        <v>0.01388693183252468</v>
+        <v>9.419059772146641E-06</v>
       </c>
       <c r="T14">
-        <v>0.01388693183252468</v>
+        <v>9.419059772146643E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H15">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I15">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J15">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N15">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O15">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P15">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q15">
-        <v>124.9546817004256</v>
+        <v>0.1010007206707778</v>
       </c>
       <c r="R15">
-        <v>124.9546817004256</v>
+        <v>0.909006486037</v>
       </c>
       <c r="S15">
-        <v>0.01271646834234124</v>
+        <v>8.964612355139609E-06</v>
       </c>
       <c r="T15">
-        <v>0.01271646834234124</v>
+        <v>8.964612355139609E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01422566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.042677</v>
+      </c>
+      <c r="I16">
+        <v>0.0001722140935329982</v>
+      </c>
+      <c r="J16">
+        <v>0.0001722140935329982</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>71.92949600000001</v>
+      </c>
+      <c r="N16">
+        <v>215.788488</v>
+      </c>
+      <c r="O16">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="P16">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="Q16">
+        <v>1.023245033597334</v>
+      </c>
+      <c r="R16">
+        <v>9.209205302376001</v>
+      </c>
+      <c r="S16">
+        <v>9.082108533088807E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.082108533088807E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H17">
+        <v>59.824325</v>
+      </c>
+      <c r="I17">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J17">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.84555366666667</v>
+      </c>
+      <c r="N17">
+        <v>62.53666100000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1528355607951359</v>
+      </c>
+      <c r="P17">
+        <v>0.1528355607951359</v>
+      </c>
+      <c r="Q17">
+        <v>415.6903924532028</v>
+      </c>
+      <c r="R17">
+        <v>3741.213532078826</v>
+      </c>
+      <c r="S17">
+        <v>0.03689580830067277</v>
+      </c>
+      <c r="T17">
+        <v>0.03689580830067277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H18">
+        <v>59.824325</v>
+      </c>
+      <c r="I18">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J18">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.057283</v>
+      </c>
+      <c r="N18">
+        <v>87.17184899999999</v>
+      </c>
+      <c r="O18">
+        <v>0.2130423692986087</v>
+      </c>
+      <c r="P18">
+        <v>0.2130423692986087</v>
+      </c>
+      <c r="Q18">
+        <v>579.4441139363249</v>
+      </c>
+      <c r="R18">
+        <v>5214.997025426925</v>
+      </c>
+      <c r="S18">
+        <v>0.05143024553100448</v>
+      </c>
+      <c r="T18">
+        <v>0.05143024553100449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>18.2948582175422</v>
-      </c>
-      <c r="H16">
-        <v>18.2948582175422</v>
-      </c>
-      <c r="I16">
-        <v>0.2293462858308724</v>
-      </c>
-      <c r="J16">
-        <v>0.2293462858308724</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>59.1699824095798</v>
-      </c>
-      <c r="N16">
-        <v>59.1699824095798</v>
-      </c>
-      <c r="O16">
-        <v>0.4803444297698353</v>
-      </c>
-      <c r="P16">
-        <v>0.4803444297698353</v>
-      </c>
-      <c r="Q16">
-        <v>1082.506438917728</v>
-      </c>
-      <c r="R16">
-        <v>1082.506438917728</v>
-      </c>
-      <c r="S16">
-        <v>0.1101652108872601</v>
-      </c>
-      <c r="T16">
-        <v>0.1101652108872601</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H19">
+        <v>59.824325</v>
+      </c>
+      <c r="I19">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J19">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.459812</v>
+      </c>
+      <c r="N19">
+        <v>22.379436</v>
+      </c>
+      <c r="O19">
+        <v>0.05469389629450878</v>
+      </c>
+      <c r="P19">
+        <v>0.05469389629450879</v>
+      </c>
+      <c r="Q19">
+        <v>148.7594058423</v>
+      </c>
+      <c r="R19">
+        <v>1338.8346525807</v>
+      </c>
+      <c r="S19">
+        <v>0.01320357318938366</v>
+      </c>
+      <c r="T19">
+        <v>0.01320357318938366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H20">
+        <v>59.824325</v>
+      </c>
+      <c r="I20">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J20">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.099893666666667</v>
+      </c>
+      <c r="N20">
+        <v>21.299681</v>
+      </c>
+      <c r="O20">
+        <v>0.05205504480631769</v>
+      </c>
+      <c r="P20">
+        <v>0.05205504480631769</v>
+      </c>
+      <c r="Q20">
+        <v>141.5821153933694</v>
+      </c>
+      <c r="R20">
+        <v>1274.239038540325</v>
+      </c>
+      <c r="S20">
+        <v>0.01256653192663231</v>
+      </c>
+      <c r="T20">
+        <v>0.01256653192663232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H21">
+        <v>59.824325</v>
+      </c>
+      <c r="I21">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J21">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>71.92949600000001</v>
+      </c>
+      <c r="N21">
+        <v>215.788488</v>
+      </c>
+      <c r="O21">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="P21">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="Q21">
+        <v>1434.377848596734</v>
+      </c>
+      <c r="R21">
+        <v>12909.4006373706</v>
+      </c>
+      <c r="S21">
+        <v>0.1273123726055669</v>
+      </c>
+      <c r="T21">
+        <v>0.1273123726055669</v>
       </c>
     </row>
   </sheetData>
